--- a/Study 3/Shocks/GCAM/NDC_EI - 2045.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2045.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.008576031266452686</v>
+        <v>0.008576031266452688</v>
       </c>
     </row>
     <row r="3">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.005104218956348953</v>
+        <v>0.005104218956348954</v>
       </c>
     </row>
     <row r="10">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.04043614111783733</v>
+        <v>0.04043614111783734</v>
       </c>
     </row>
     <row r="11">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.002983546562160632</v>
+        <v>0.002983546562160633</v>
       </c>
     </row>
     <row r="15">
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1666827300132616</v>
+        <v>0.1666827300132617</v>
       </c>
     </row>
     <row r="19">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.04386232560961086</v>
+        <v>0.04386232560961087</v>
       </c>
     </row>
     <row r="22">
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.05956862691358324</v>
+        <v>0.05956862691358325</v>
       </c>
     </row>
     <row r="26">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0005887275006336224</v>
+        <v>0.0005887275006336225</v>
       </c>
     </row>
     <row r="27">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.0005138289719213054</v>
+        <v>0.0005138289719213055</v>
       </c>
     </row>
     <row r="31">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.004342170861144159</v>
+        <v>0.00434217086114416</v>
       </c>
     </row>
     <row r="34">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.1031553609417874</v>
+        <v>0.1031553609417875</v>
       </c>
     </row>
     <row r="39">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.2825516436634665</v>
+        <v>0.2825516436634666</v>
       </c>
     </row>
   </sheetData>
